--- a/TEAM ECLIPSE/Advance-Weak students-updated.xlsx
+++ b/TEAM ECLIPSE/Advance-Weak students-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uipath\TEAM ECLIPSE\TEAM ECLIPSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D0053A-3D03-4964-AF0F-E7CE9887D3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD7800-8199-4C66-876B-2873D6070624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,12 +75,6 @@
     <t>s .no</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>aarsnr13@gmail.com</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>anjuliaggarwal.cse24@jecrc.ac.in</t>
+  </si>
+  <si>
+    <t>sheelaa17368@gmail.com</t>
+  </si>
+  <si>
+    <t>sh</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,22 +593,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="11">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4">
         <v>11</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -635,22 +635,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11">
         <v>14</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4">
         <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>18</v>
